--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1809731.644135361</v>
+        <v>1811494.591554516</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445190.96012775</v>
+        <v>12444970.70772257</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>428022.1753582568</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10174195.15373872</v>
+        <v>10169950.41088695</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.5639921989984</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.5639921989984</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5639921989984</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>212.4355068307154</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645086</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.42973342359872</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928071</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072384</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.7423675827248</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545380905306</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8843116769506</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704492</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.5639921989984</v>
+        <v>229.2639556792592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.0022382099745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>225.5746268692127</v>
       </c>
       <c r="E5" t="n">
-        <v>212.5689651179051</v>
+        <v>270.6457911193436</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>270.6457911193436</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>12.81018594870496</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>270.6457911193436</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634406</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>17.3556238353968</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>37.88282551164098</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>14.31143149181142</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.214688090590209</v>
+        <v>12.68511469666314</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>378.0827750811366</v>
+        <v>158.0268770155122</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987942</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926962</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838587</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.9807481254324</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50.98074812542834</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>335.9464125187619</v>
       </c>
     </row>
     <row r="12">
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>131.6267707433217</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>119.456671712837</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>6.434538210426277</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>25.2632269748843</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>125.2851635392052</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>260.7402930080322</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.0297140495306</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="C2" t="n">
-        <v>521.8034593030675</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D2" t="n">
-        <v>255.5772045566044</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>40.99588452557876</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>34.05038377637529</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>21.08511937591988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08511937591988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.14994660701178</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164432</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>293.9792536780761</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>494.8101216988863</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238173</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381137</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.580993266322</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.255968795994</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795994</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.255968795994</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.255968795994</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.255968795994</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.255968795994</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.255968795994</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.255968795994</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.255968795994</v>
+        <v>840.1393936243022</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>750.7362343668491</v>
+        <v>491.0191073156138</v>
       </c>
       <c r="C3" t="n">
-        <v>576.2832050857221</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D3" t="n">
-        <v>427.3487954244709</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1113404190154</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5767824459004</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5767824459004</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.08511937591988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957492</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2253570557076</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4244093746329</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.3527616516413</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271669</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280453</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795994</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158899</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.871862158899</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.871862158899</v>
+        <v>906.6309062861005</v>
       </c>
       <c r="U3" t="n">
-        <v>807.7359650977569</v>
+        <v>906.6309062861005</v>
       </c>
       <c r="V3" t="n">
-        <v>807.7359650977569</v>
+        <v>906.6309062861005</v>
       </c>
       <c r="W3" t="n">
-        <v>807.7359650977569</v>
+        <v>906.6309062861005</v>
       </c>
       <c r="X3" t="n">
-        <v>807.7359650977569</v>
+        <v>698.7794060805677</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.7359650977569</v>
+        <v>491.0191073156138</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.458172251123</v>
+        <v>487.696204039846</v>
       </c>
       <c r="C4" t="n">
-        <v>484.458172251123</v>
+        <v>487.696204039846</v>
       </c>
       <c r="D4" t="n">
-        <v>484.458172251123</v>
+        <v>337.5795646275102</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5450786687298</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>189.6551311708195</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953615</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735308</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559558</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568301</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005258</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485828</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795994</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>925.4341625632169</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>925.4341625632169</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>925.4341625632169</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>659.2079078167537</v>
+        <v>487.696204039846</v>
       </c>
       <c r="V4" t="n">
-        <v>659.2079078167537</v>
+        <v>487.696204039846</v>
       </c>
       <c r="W4" t="n">
-        <v>659.2079078167537</v>
+        <v>487.696204039846</v>
       </c>
       <c r="X4" t="n">
-        <v>659.2079078167537</v>
+        <v>487.696204039846</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.458172251123</v>
+        <v>487.696204039846</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388466</v>
+        <v>809.2035774881383</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>809.2035774881383</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>581.3504190343881</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.9708320451521</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>34.59124505591613</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.65166328954749</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.65166328954749</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.65166328954749</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>51.85289433431103</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>147.8552290548789</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>303.8563762408138</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>509.1071481323421</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>722.2929004749839</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>910.2628999284784</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>1036.189944763445</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1082.583164477374</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1082.583164477374</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>1082.583164477374</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>1082.583164477374</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>1082.583164477374</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>1082.583164477374</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>1082.583164477374</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>809.2035774881383</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>809.2035774881383</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>650.8111152104963</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>476.3580859293693</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>327.423676268118</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>168.1862212626625</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.65166328954749</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.65166328954749</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.65166328954749</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.65166328954749</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.65166328954749</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>98.38754287825483</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>247.8909439361431</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>441.7112295230994</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>655.0700062550304</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>828.0318087456254</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>947.5158375829143</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1082.583164477374</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1065.052231310307</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1065.052231310307</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1065.052231310307</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1065.052231310307</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>1065.052231310307</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528705</v>
+        <v>1065.052231310307</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473376</v>
+        <v>1026.786750995518</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823837</v>
+        <v>819.0264522305642</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>649.9635181159637</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>481.0273351880568</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>330.9106957757211</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>182.997602193328</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.10765469541761</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.10765469541761</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.10765469541761</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.10765469541761</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.65166328954749</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>128.2056025464433</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>320.0843941609292</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>532.7827996211338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>745.8583288256597</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>926.6517718053129</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1057.831113077931</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1065.21780925808</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1065.21780925808</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>1065.21780925808</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>1065.21780925808</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>1065.21780925808</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>1065.21780925808</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>1065.21780925808</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.618461328661</v>
+        <v>1052.404562089733</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8258821851307</v>
+        <v>831.6119829462034</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1296.296386131216</v>
+        <v>603.6036480119278</v>
       </c>
       <c r="C8" t="n">
-        <v>1296.296386131216</v>
+        <v>603.6036480119278</v>
       </c>
       <c r="D8" t="n">
-        <v>1296.296386131216</v>
+        <v>603.6036480119278</v>
       </c>
       <c r="E8" t="n">
-        <v>910.5081335329714</v>
+        <v>217.8153954136836</v>
       </c>
       <c r="F8" t="n">
-        <v>499.5222287433639</v>
+        <v>210.8698946644801</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816104</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872951</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923567</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230824</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740848</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721765007</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.53079966241</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392296</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131216</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y8" t="n">
-        <v>1296.296386131216</v>
+        <v>990.2034880760496</v>
       </c>
     </row>
     <row r="9">
@@ -4865,49 +4865,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500118</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>507.2413987429698</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>801.9449557744426</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1165.206974733664</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1552.49210333061</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1884.562538506773</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>716.5983551657537</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>547.6621722378468</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>397.545532825511</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>249.6324392431179</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>102.7424917452076</v>
       </c>
       <c r="G10" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312227</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020483</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693248</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096608</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245826</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999038</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171028</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>1347.028950037541</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1119.039399139524</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>898.2468199959934</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>336.8751144585956</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>928.8934687107234</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.98943211006</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2097.865907110254</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>561.9183350635719</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>392.982152135665</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>392.982152135665</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>392.982152135665</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>964.3593790373418</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>743.5667998938117</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5357,16 +5357,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1567.722549094265</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1050.315828159287</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5652,19 +5652,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5761,16 +5761,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>337.3280009388789</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>170.1319016537588</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6071,16 +6071,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2421.444672494519</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2238.589838149423</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2018.988373172364</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1729.913146516562</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.913146516562</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1440.495976479601</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>1212.506425581584</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.7138464380538</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6366,19 +6366,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,10 +6463,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180513</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>599.6019060180513</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,25 +7074,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1237.37303605497</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,31 +7393,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7736,13 +7736,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.050829008588835</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518618</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362154</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>46.25378005664848</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.58825165876362</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>59.01279547936795</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>0.8385865109869144</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>106.1763780613192</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241487</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>114.3555089013354</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154957</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>50.29152613729173</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>13.79427727960953</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>132.680971610991</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>64.74262662649483</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.11201973523738</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.79125956324884</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>92.12028678808304</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>25.78270532855885</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>53.02951788468647</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>893391.0909447679</v>
+        <v>893356.2983339971</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>893356.2983339971</v>
+        <v>893417.5212333897</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>897069.5431855377</v>
+        <v>897069.5431855376</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875001.9222469045</v>
+        <v>870200.082091031</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583918</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>541808.845855671</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907541</v>
@@ -26352,10 +26352,10 @@
         <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.276116314</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389944757</v>
+        <v>7673.230953341461</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059435</v>
+        <v>383864.7205861367</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>495753.0386361742</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>11452.26311504122</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491484</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395579967</v>
+        <v>1784.052100575584</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756977</v>
+        <v>93628.24182084514</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>129476.544431744</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3077.017355704785</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.015607761</v>
+        <v>246753.8673982314</v>
       </c>
       <c r="C4" t="n">
-        <v>246753.8673982314</v>
+        <v>244663.7830731194</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618635</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8110.779805506623</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360381</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63599.34810691486</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-435366.9939992875</v>
+        <v>-435686.4565352996</v>
       </c>
       <c r="C6" t="n">
-        <v>244027.5765168993</v>
+        <v>238266.8325250156</v>
       </c>
       <c r="D6" t="n">
-        <v>-64180.94184926017</v>
+        <v>-56917.29862945358</v>
       </c>
       <c r="E6" t="n">
-        <v>-72248.70833878795</v>
+        <v>-62243.0060954139</v>
       </c>
       <c r="F6" t="n">
-        <v>435236.7332857578</v>
+        <v>424097.1114996378</v>
       </c>
       <c r="G6" t="n">
-        <v>435236.7332857579</v>
+        <v>435549.374614679</v>
       </c>
       <c r="H6" t="n">
-        <v>435236.7332857581</v>
+        <v>435549.374614679</v>
       </c>
       <c r="I6" t="n">
-        <v>435236.7332857579</v>
+        <v>435549.374614679</v>
       </c>
       <c r="J6" t="n">
-        <v>366276.7961108428</v>
+        <v>366550.2201955649</v>
       </c>
       <c r="K6" t="n">
-        <v>435198.1569618022</v>
+        <v>433765.3225141035</v>
       </c>
       <c r="L6" t="n">
-        <v>339854.0871481881</v>
+        <v>341921.1327938341</v>
       </c>
       <c r="M6" t="n">
-        <v>302629.4395568315</v>
+        <v>306072.8301829353</v>
       </c>
       <c r="N6" t="n">
-        <v>435236.7332857581</v>
+        <v>432472.3572589746</v>
       </c>
       <c r="O6" t="n">
-        <v>435236.7332857579</v>
+        <v>435549.3746146793</v>
       </c>
       <c r="P6" t="n">
-        <v>435236.733285758</v>
+        <v>435549.374614679</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.697532472693</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>620.0222021494849</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175416</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989984</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>270.6457911193436</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.697532472693</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967852949</v>
+        <v>5.967188380006519</v>
       </c>
       <c r="D3" t="n">
-        <v>320.009878348061</v>
+        <v>314.0426899680567</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>423.9761565988442</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989984</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.149887802507692</v>
+        <v>6.93191111783743</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985328</v>
+        <v>369.9390409806953</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>519.5604582259676</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989988</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>0.149887802507692</v>
+        <v>6.93191111783743</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>369.9390409806953</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>519.5604582259676</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989984</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.149887802507692</v>
+        <v>6.93191111783743</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>369.9390409806953</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>519.5604582259676</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.1698494644821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.7088995720091</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>91.11904942168451</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>169.4948632415464</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2083504396427</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587335</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602293</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2960065554913</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482828471418</v>
+        <v>38.57920276037737</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.1034502262686</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0234885084581</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225809</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1642178017449</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>48.09862000215199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3878907573036</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597227</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404765</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328714</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2171002436558</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.6946734657738</v>
+        <v>56.99467482341831</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.58241514212034</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>129.1084147514703</v>
       </c>
       <c r="E5" t="n">
-        <v>169.3614049543567</v>
+        <v>111.2845789529182</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>136.2302546223679</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>313.947958386065</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>114.3817953056098</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>152.2210507662197</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.1847050820836</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1462487825221</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>99.08530955912545</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642676</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>136.0098845019834</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.35536037674962</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.47989429600511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>146.9115293481485</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>194.7892531875067</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8536430901046</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>167.8901596918365</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>166.8729065349105</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>152.286488676256</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>121.8269758336436</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>127.0207715110818</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>204.531638012045</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>223.1683691822117</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>286.2580435661155</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>223.4949672984469</v>
+        <v>213.024540692374</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>33.46492769181737</v>
+        <v>253.5208257574417</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>301.0185525624053</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247013</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802337</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193718</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>53.81584707847224</v>
+        <v>104.7965952039004</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195734</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.6624603617374</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684191</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612448</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167237</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611225</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262244</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635558</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745558</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364172</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351735013</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059853</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731076</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389459</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601606</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864005</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947352</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752585</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721576</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915698</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773045</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457277</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628365</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976176</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235681</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419451</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641142</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592949</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191929</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209295</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550987</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424904</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508135</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135969</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753555</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262512</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606724</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023944003</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840433</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.350337116604</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735317</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707656</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337664</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.7598032067203</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410085</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625666</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0603636917186256</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.492551566430088</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.52684372970215</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>96.09409426479607</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>211.5521985112959</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>317.0619063182816</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>393.3433313194164</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>437.6702452389175</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>444.7522073770371</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>419.9668977383478</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>358.432030942105</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>269.1675279693274</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>156.5727423347642</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.79901882002569</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>10.91114448204772</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.199404125314407</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.333632661227194</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>12.88008385974685</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.91673855540997</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>125.9990401556798</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>215.3524284579018</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>289.5679162019835</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>337.9121001714692</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>346.8556279741727</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>317.3051358490859</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>254.6653456338139</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>170.2370393524397</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.80221031724633</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.77164175568931</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.375475507314872</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08773899087021016</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.118072823548251</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.94068383118355</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.6234990936147</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>79.04774862486136</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>129.899733499515</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>166.2269359664373</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>175.2629972403863</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>171.0956348980702</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>158.0345114593474</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>135.225825858963</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>93.62335252457221</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>50.27261986608772</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.48496002492725</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.7772202460698</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06098579037535923</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181069</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336188</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979358</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491908</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857155</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767395</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730021</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342241</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166611</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190659</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147062</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235318</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745119</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389764</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744855</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347165</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.40387634380026</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436511</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575846</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178446</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177255</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040601</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762085</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405686</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378635</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168767</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.7417227624144</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997911</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000194</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675767</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654583</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231076</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335784</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.085617475379</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682324</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227914</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849634</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067965</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154679</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169142</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097488</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759605</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523486</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106958</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529025009</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>235.9437832957015</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32086,10 +32086,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443626</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124388</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935685</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>202.859462647283</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.8531823484151</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518146</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507158</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865814</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136873</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829623</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>238.5849013322478</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.5639921989984</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521975006</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.093169649784</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327336</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347895</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547165</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458839</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958326</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875714</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356591</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151682252</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>30.50629398460958</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>96.97205527330101</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>157.5769163494292</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>207.3240120116448</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>215.3391437804461</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>189.8686863166611</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>127.1990351868354</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>46.86183809487787</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>77.51098948354277</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>151.0135364221093</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>195.7780662494509</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>215.5139158908394</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>174.7088914046415</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>120.6909382194837</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>136.4316433277374</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>107.6302416736321</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>193.8169612267534</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>214.8468742022269</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>215.2278072772988</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>182.6196393733871</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>132.5043851238565</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>7.461309272877827</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225045</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540735</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067523</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457294</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376332</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949743</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637963</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402567</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939967</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091791</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676343</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378513</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820418</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928752</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961242</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634704</v>
       </c>
       <c r="Q9" t="n">
-        <v>230.83623123219</v>
+        <v>116.4807223308552</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870624</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423496</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831075</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468039</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860251</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295076</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818077</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.8817554580544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>97.38940351582735</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,10 +35734,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
